--- a/Data/Data collected/Questionnaires_lables_old/2WURS_2025.xlsx
+++ b/Data/Data collected/Questionnaires_lables_old/2WURS_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tulum/Dropbox/תואר פסיכולוגיה/תואר שני/תואר שני קלינית מחקרית/שיעורים - קלינית/מעבדה/תזה/Data/Data Collected/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tulum/Dropbox/Github/Creativity-in-ADHD/Data/Data collected/Questionnaires_lables_old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEDA404A-E07F-194E-90F2-08EB7C9BF2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E781DD-0241-7741-996E-D7D7ED72A40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="344">
   <si>
     <t>StartDate</t>
   </si>
@@ -1084,6 +1084,9 @@
   </si>
   <si>
     <t>mkSJjy</t>
+  </si>
+  <si>
+    <t>vQtQiu</t>
   </si>
 </sst>
 </file>
@@ -1467,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A87"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AR4" sqref="AR4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8973,8 +8976,8 @@
       <c r="AQ56">
         <v>16</v>
       </c>
-      <c r="AR56" s="2" t="s">
-        <v>97</v>
+      <c r="AR56" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="1:44" ht="48" x14ac:dyDescent="0.2">
@@ -11385,8 +11388,8 @@
       <c r="AQ74">
         <v>15</v>
       </c>
-      <c r="AR74" s="2" t="s">
-        <v>97</v>
+      <c r="AR74" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="75" spans="1:44" ht="32" x14ac:dyDescent="0.2">
@@ -13135,7 +13138,7 @@
   <autoFilter ref="A2:AR88" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C87 D1:D87 G1:G87 I1:I87 J1:J87 K1:K87 L1:L87 M1:M87 P1:P87 Q1:Q87 R1:R87 S1:S87 T1:T87 U1:U87 V1:V87 W1:W87 X1:X87 Y1:Y87 Z1:Z87 AA1:AA87 AB1:AB87 AC1:AC87 AD1:AD87 AE1:AE87 AF1:AF87 AG1:AG87 AH1:AH87 AI1:AI87 AJ1:AJ87 AK1:AK87 AL1:AL87 AM1:AM87 AN1:AN87 AO1:AO87 AP1:AP87 AR1:AR87" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C87 D1:D87 G1:G87 I1:I87 J1:J87 K1:K87 L1:L87 M1:M87 P1:P87 Q1:Q87 R1:R87 S1:S87 T1:T87 U1:U87 V1:V87 W1:W87 X1:X87 Y1:Y87 Z1:Z87 AA1:AA87 AB1:AB87 AC1:AC87 AD1:AD87 AE1:AE87 AF1:AF87 AG1:AG87 AH1:AH87 AI1:AI87 AJ1:AJ87 AK1:AK87 AL1:AL87 AM1:AM87 AN1:AN87 AO1:AO87 AP1:AP87 AR1:AR55 AR57:AR73 AR75:AR87" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>